--- a/book1.xlsx
+++ b/book1.xlsx
@@ -1462,7 +1462,7 @@
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -1471,7 +1471,7 @@
         <v>45791</v>
       </c>
       <c r="D25" s="6">
-        <v>45791.450625</v>
+        <v>45791.490034722221</v>
       </c>
     </row>
   </sheetData>
